--- a/378-rc---professionnel-de-lévènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/378-rc---professionnel-de-lévènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T07:18:16+00:00</t>
+    <t>2025-10-20T09:45:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -18991,7 +18991,7 @@
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
